--- a/vos/predmet/2rocnik/zo/PJR/ROI-cviceni.xlsx
+++ b/vos/predmet/2rocnik/zo/PJR/ROI-cviceni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Plocha\prg\WEB\GithubPages\vos\predmet\2rocnik\zo\PJR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE84BC6-46CC-4271-9AD4-8DF51A815673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8112570F-EC0A-4DAB-B569-B5E4FCE862E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BD61EC3-CCC9-45B1-A76C-C662CD6243DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Varianta</t>
   </si>
@@ -62,13 +62,10 @@
     <t>ROI</t>
   </si>
   <si>
-    <t>Ekonomická</t>
+    <t>Kiosek</t>
   </si>
   <si>
-    <t>Prémiová</t>
-  </si>
-  <si>
-    <t>Oprava 200000</t>
+    <t>Podcast</t>
   </si>
 </sst>
 </file>
@@ -105,18 +102,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -292,7 +283,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,12 +349,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Čárka" xfId="1" builtinId="3"/>
@@ -391,8 +386,8 @@
       <xdr:rowOff>30626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="351315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextovéPole 1">
@@ -624,7 +619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextovéPole 1">
@@ -689,8 +684,8 @@
       <xdr:rowOff>120356</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="351891"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextovéPole 2">
@@ -874,7 +869,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextovéPole 2">
@@ -1251,47 +1246,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A5119F-1247-43A9-8BA1-B445D001989E}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1304,116 +1299,115 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="11">
         <v>5</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="C3" s="5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="5">
         <v>150000</v>
       </c>
       <c r="E3" s="5">
         <f>$D$3-$C$3</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F3" s="9" t="str">
         <f>ROUND(ABS(B3/(C3-D3)),1) &amp; " let"</f>
-        <v>5 let</v>
+        <v>4 let</v>
       </c>
       <c r="G3" s="10">
         <f>($D$3*$G$2-($B$3+$C$3*$G$2))/$B$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="10">
         <f>($D$3*$H$2-($B$3+$C$3*$H$2))/$B$3</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="10">
-        <f>($D$3*$I$2-($B$3+$C$3*$I$2 + 200000))/$B$3</f>
-        <v>1.6</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>10</v>
-      </c>
+        <f>($D$3*$I$2-($B$3+$C$3*$I$2))/$B$3</f>
+        <v>2.75</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1200000</v>
+        <v>50000</v>
       </c>
       <c r="C4" s="5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="5">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="E4" s="5">
         <f>$D$4-$C$4</f>
-        <v>270000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="9" t="str">
         <f>ROUND(ABS(B4/(C4-D4)),1) &amp; " let"</f>
-        <v>4,4 let</v>
+        <v>2,5 let</v>
       </c>
       <c r="G4" s="10">
         <f>($D$4*$G$2-($B$4+$C$4*$G$2))/$B$4</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="H4" s="10">
         <f>($D$4*$H$2-($B$4+$C$4*$H$2))/$B$4</f>
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10">
         <f>($D$4*$I$2-($B$4+$C$4*$I$2))/$B$4</f>
-        <v>2.375</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="G8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>

--- a/vos/predmet/2rocnik/zo/PJR/ROI-cviceni.xlsx
+++ b/vos/predmet/2rocnik/zo/PJR/ROI-cviceni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Plocha\prg\WEB\GithubPages\vos\predmet\2rocnik\zo\PJR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8112570F-EC0A-4DAB-B569-B5E4FCE862E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47559B8D-F778-4E6A-83A4-9913991D1C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BD61EC3-CCC9-45B1-A76C-C662CD6243DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Varianta</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Podcast</t>
+  </si>
+  <si>
+    <t>Celkem</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,6 +328,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,13 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Čárka" xfId="1" builtinId="3"/>
@@ -1246,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A5119F-1247-43A9-8BA1-B445D001989E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,29 +1266,29 @@
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1301,7 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="11">
         <v>5</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1343,10 +1345,9 @@
         <f>($D$3*$I$2-($B$3+$C$3*$I$2))/$B$3</f>
         <v>2.75</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1379,35 +1380,70 @@
         <f>($D$4*$I$2-($B$4+$C$4*$I$2))/$B$4</f>
         <v>5</v>
       </c>
-      <c r="J4" s="29"/>
+      <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(B3:B4)</f>
+        <v>250000</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:E5" si="0">SUM(C3:C4)</f>
+        <v>120000</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f>ROUND(ABS(B5/(C5-D5)),1) &amp; " let"</f>
+        <v>3,6 let</v>
+      </c>
+      <c r="G5" s="10">
+        <f>($D$5*$G$2-($B$5+$C$5*$G$2))/$B$5</f>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="10">
+        <f>($D$5*$H$2-($B$5+$C$5*$H$2))/$B$5</f>
+        <v>1.8</v>
+      </c>
+      <c r="I5" s="10">
+        <f>($D$5*$I$2-($B$5+$C$5*$I$2))/$B$5</f>
+        <v>3.2</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="G8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
